--- a/biology/Botanique/Uebelmannia_pectinifera/Uebelmannia_pectinifera.xlsx
+++ b/biology/Botanique/Uebelmannia_pectinifera/Uebelmannia_pectinifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Uebelmannia pectinifera est une espèce du genre Uebelmannia, de la famille des Cactaceae.
 </t>
@@ -511,15 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Uebelmannia pectinifera est une espèce solitaire et globulaire, devenant colonnaire avec l'âge, elle mesure 0,5 m de hauteur pour 0,15 m de large.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Uebelmannia pectinifera est une espèce solitaire et globulaire, devenant colonnaire avec l'âge, elle mesure 0,5 m de hauteur pour 0,15 m de large.
 Les côtes sont au nombre de 15 à 18.
 Les fleurs sont petites (15 mm) et jaunes, en forme d’entonnoir, la floraison est diurne et estivale, elle survient chez les plantes âgées.
-Les fruits sont des baies rouge-verdâtre ; les graines sont petites et noires.
-Coloration
-La couleur de l'épiderme de la plante varie selon son exposition : cultivée à l'ombre, elle est verte avec des rayures blanches, exposée au soleil elle apparaît brun-foncé à violacée.
-</t>
+Les fruits sont des baies rouge-verdâtre ; les graines sont petites et noires.</t>
         </is>
       </c>
     </row>
@@ -544,14 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dans l'état du Minas Gerais au Brésil. De 650 à 1 350 m d'altitude dans la chaîne de montagnes Serra do Espinhaço.
-Habitat
-Savane sèche et zones rocheuse.
+          <t>Coloration</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La couleur de l'épiderme de la plante varie selon son exposition : cultivée à l'ombre, elle est verte avec des rayures blanches, exposée au soleil elle apparaît brun-foncé à violacée.
 </t>
         </is>
       </c>
@@ -577,12 +592,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Culture</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Substrat (un tiers de terreau, de sable et de terre de jardin) additionné à du sable siliceux (30-35 %). Exposition au plein soleil, avec un léger ombrage aux heures les plus chaudes. Beaucoup de chaleur et d'humidité en période estivale (arrosages abondants par temps chaud). Hivernage au chaud et au sec, on évitera de descendre sous les 10 °C. Le seul moyen de reproduction est le semis.
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'état du Minas Gerais au Brésil. De 650 à 1 350 m d'altitude dans la chaîne de montagnes Serra do Espinhaço.
 </t>
         </is>
       </c>
@@ -608,10 +625,82 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Savane sèche et zones rocheuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Uebelmannia_pectinifera</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Uebelmannia_pectinifera</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Substrat (un tiers de terreau, de sable et de terre de jardin) additionné à du sable siliceux (30-35 %). Exposition au plein soleil, avec un léger ombrage aux heures les plus chaudes. Beaucoup de chaleur et d'humidité en période estivale (arrosages abondants par temps chaud). Hivernage au chaud et au sec, on évitera de descendre sous les 10 °C. Le seul moyen de reproduction est le semis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Uebelmannia_pectinifera</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Uebelmannia_pectinifera</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Uebelmannia pectinifera subsp. pectinifera
 0,5 m de hauteur pour environ 18 côtes, partie supérieure des montagnes (vers 1 000 m) ;
@@ -622,31 +711,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Uebelmannia_pectinifera</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Uebelmannia_pectinifera</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Uebelmannia : horticulteur suisse Werner Uebelmann.
 pectinifera : du latin pectinatus (« en forme de peigne »).</t>
